--- a/inputs/primary-results/raw/HOUSE Results.xlsx
+++ b/inputs/primary-results/raw/HOUSE Results.xlsx
@@ -191,10 +191,10 @@
     <x:t>State of Montana</x:t>
   </x:si>
   <x:si>
-    <x:t>Precincts 193 of 307 Reporting (Precincts Partially Reported: 100/307)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Downloaded at 6/8/2022 9:59:49 AM</x:t>
+    <x:t>Precincts 307 of 307 Reporting (Precincts Partially Reported: 0/307)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downloaded at 7/19/2022 9:08:46 AM</x:t>
   </x:si>
   <x:si>
     <x:t>STATE REPRESENTATIVE DISTRICT 1</x:t>
@@ -1893,7 +1893,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.700625" style="0" customWidth="1"/>
   </x:cols>
@@ -1934,7 +1934,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1942,7 +1942,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1965,7 +1965,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.370625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="22.290625" style="0" customWidth="1"/>
@@ -2010,10 +2010,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>800</x:v>
+        <x:v>811</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2021,10 +2021,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>800</x:v>
+        <x:v>811</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2047,7 +2047,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.140625" style="0" customWidth="1"/>
   </x:cols>
@@ -2088,7 +2088,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2137</x:v>
+        <x:v>2151</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2096,7 +2096,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2137</x:v>
+        <x:v>2151</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2119,7 +2119,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.500625" style="0" customWidth="1"/>
   </x:cols>
@@ -2160,7 +2160,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2168,7 +2168,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2191,7 +2191,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.690625" style="0" customWidth="1"/>
   </x:cols>
@@ -2232,7 +2232,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>794</x:v>
+        <x:v>802</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2240,7 +2240,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>794</x:v>
+        <x:v>802</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2263,7 +2263,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -2304,7 +2304,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1633</x:v>
+        <x:v>1654</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2312,7 +2312,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1633</x:v>
+        <x:v>1654</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2335,7 +2335,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.260625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.520625" style="0" customWidth="1"/>
@@ -2380,10 +2380,10 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2391,10 +2391,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2417,7 +2417,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.100625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.480625" style="0" customWidth="1"/>
@@ -2462,10 +2462,10 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2473,10 +2473,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2499,7 +2499,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -2540,7 +2540,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1705</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2548,7 +2548,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2571,7 +2571,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.320625" style="0" customWidth="1"/>
   </x:cols>
@@ -2612,7 +2612,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1268</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2620,7 +2620,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1268</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2643,7 +2643,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.830625" style="0" customWidth="1"/>
   </x:cols>
@@ -2684,7 +2684,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1415</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2692,7 +2692,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1415</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2715,7 +2715,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.700625" style="0" customWidth="1"/>
   </x:cols>
@@ -2756,7 +2756,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>882</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2764,7 +2764,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>882</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2787,7 +2787,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.470625" style="0" customWidth="1"/>
   </x:cols>
@@ -2828,7 +2828,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2836,7 +2836,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2859,7 +2859,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.860625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.120625" style="0" customWidth="1"/>
@@ -2904,10 +2904,10 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2915,10 +2915,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2941,7 +2941,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.970625" style="0" customWidth="1"/>
   </x:cols>
@@ -2982,7 +2982,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2990,7 +2990,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3013,7 +3013,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.410625" style="0" customWidth="1"/>
   </x:cols>
@@ -3054,7 +3054,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2155</x:v>
+        <x:v>2171</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3062,7 +3062,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2155</x:v>
+        <x:v>2171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3085,7 +3085,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.540625" style="0" customWidth="1"/>
   </x:cols>
@@ -3157,7 +3157,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.900625" style="0" customWidth="1"/>
   </x:cols>
@@ -3198,7 +3198,7 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1360</x:v>
+        <x:v>1362</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3206,7 +3206,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -3214,7 +3214,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2174</x:v>
+        <x:v>2346</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3237,7 +3237,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.070625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.510625" style="0" customWidth="1"/>
@@ -3293,10 +3293,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -3304,10 +3304,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3330,7 +3330,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.000625" style="0" customWidth="1"/>
   </x:cols>
@@ -3371,7 +3371,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3379,7 +3379,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1982</x:v>
+        <x:v>2010</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -3395,7 +3395,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2465</x:v>
+        <x:v>2502</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3418,7 +3418,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.990625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.700625" style="0" customWidth="1"/>
   </x:cols>
@@ -3459,7 +3459,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1985</x:v>
+        <x:v>1995</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3475,7 +3475,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2150</x:v>
+        <x:v>2160</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3498,7 +3498,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.990625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.600625" style="0" customWidth="1"/>
   </x:cols>
@@ -3539,7 +3539,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3547,7 +3547,7 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -3555,7 +3555,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3578,7 +3578,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.400625" style="0" customWidth="1"/>
   </x:cols>
@@ -3650,7 +3650,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.800625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.280625" style="0" customWidth="1"/>
@@ -3703,16 +3703,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -3720,16 +3720,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3752,7 +3752,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.730625" style="0" customWidth="1"/>
   </x:cols>
@@ -3824,7 +3824,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.180625" style="0" customWidth="1"/>
   </x:cols>
@@ -3865,7 +3865,7 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3873,7 +3873,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3896,7 +3896,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.900625" style="0" customWidth="1"/>
   </x:cols>
@@ -3937,7 +3937,7 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1135</x:v>
+        <x:v>1157</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3945,7 +3945,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1135</x:v>
+        <x:v>1157</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3968,7 +3968,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.630625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.510625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="22.400625" style="0" customWidth="1"/>
@@ -4013,10 +4013,10 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1700</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -4024,10 +4024,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1700</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4050,7 +4050,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.260625" style="0" customWidth="1"/>
   </x:cols>
@@ -4122,7 +4122,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.950625" style="0" customWidth="1"/>
   </x:cols>
@@ -4163,7 +4163,7 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1877</x:v>
+        <x:v>1878</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4171,7 +4171,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1877</x:v>
+        <x:v>1878</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4194,7 +4194,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.530625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.710625" style="0" customWidth="1"/>
   </x:cols>
@@ -4235,7 +4235,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4243,7 +4243,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>839</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -4251,7 +4251,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1512</x:v>
+        <x:v>1518</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4274,7 +4274,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.530625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.070625" style="0" customWidth="1"/>
   </x:cols>
@@ -4315,7 +4315,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1296</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4331,7 +4331,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1546</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4354,7 +4354,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.530625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.690625" style="0" customWidth="1"/>
@@ -4399,7 +4399,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>125</x:v>
@@ -4432,7 +4432,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>496</x:v>
@@ -4458,7 +4458,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.790625" style="0" customWidth="1"/>
   </x:cols>
@@ -4499,7 +4499,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>748</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4507,7 +4507,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>748</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4530,7 +4530,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.030625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="22.290625" style="0" customWidth="1"/>
@@ -4579,13 +4579,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -4593,13 +4593,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4622,7 +4622,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.710625" style="0" customWidth="1"/>
   </x:cols>
@@ -4663,7 +4663,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1337</x:v>
+        <x:v>1776</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4671,7 +4671,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1337</x:v>
+        <x:v>1776</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4694,7 +4694,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.500625" style="0" customWidth="1"/>
   </x:cols>
@@ -4735,7 +4735,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1655</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4751,7 +4751,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1599</x:v>
+        <x:v>2151</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4774,7 +4774,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.930625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.270625" style="0" customWidth="1"/>
@@ -4819,10 +4819,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -4830,10 +4830,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4856,7 +4856,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.710625" style="0" customWidth="1"/>
@@ -4905,13 +4905,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>1108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -4919,13 +4919,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>1108</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4948,7 +4948,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.150625" style="0" customWidth="1"/>
   </x:cols>
@@ -4989,7 +4989,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>796</x:v>
+        <x:v>1064</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4997,7 +4997,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>796</x:v>
+        <x:v>1064</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5020,7 +5020,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.450625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="17.200625" style="0" customWidth="1"/>
@@ -5065,10 +5065,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1034</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -5076,10 +5076,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1034</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5102,7 +5102,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.520625" style="0" customWidth="1"/>
   </x:cols>
@@ -5143,7 +5143,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>886</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5151,7 +5151,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>886</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5174,7 +5174,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.640625" style="0" customWidth="1"/>
   </x:cols>
@@ -5215,7 +5215,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1402</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5223,7 +5223,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1402</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5246,7 +5246,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.630625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.320625" style="0" customWidth="1"/>
@@ -5295,13 +5295,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -5309,13 +5309,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5338,7 +5338,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.330625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.110625" style="0" customWidth="1"/>
@@ -5383,10 +5383,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -5394,10 +5394,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5420,7 +5420,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.030625" style="0" customWidth="1"/>
   </x:cols>
@@ -5461,7 +5461,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2001</x:v>
+        <x:v>2035</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5469,7 +5469,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -5477,7 +5477,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2500</x:v>
+        <x:v>2539</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5500,7 +5500,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.020625" style="0" customWidth="1"/>
   </x:cols>
@@ -5541,7 +5541,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2454</x:v>
+        <x:v>2473</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5549,7 +5549,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2454</x:v>
+        <x:v>2473</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5572,7 +5572,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.090625" style="0" customWidth="1"/>
   </x:cols>
@@ -5613,7 +5613,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5621,7 +5621,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5644,7 +5644,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.320625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.120625" style="0" customWidth="1"/>
@@ -5689,10 +5689,10 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1906</x:v>
+        <x:v>1914</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -5700,10 +5700,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1906</x:v>
+        <x:v>1914</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5726,7 +5726,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.470625" style="0" customWidth="1"/>
   </x:cols>
@@ -5767,7 +5767,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5775,7 +5775,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5798,7 +5798,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.570625" style="0" customWidth="1"/>
   </x:cols>
@@ -5839,7 +5839,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2084</x:v>
+        <x:v>2116</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -5847,7 +5847,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2084</x:v>
+        <x:v>2116</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5870,7 +5870,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.310625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.320625" style="0" customWidth="1"/>
@@ -5915,10 +5915,10 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1541</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -5926,10 +5926,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1541</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5952,7 +5952,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.520625" style="0" customWidth="1"/>
   </x:cols>
@@ -5993,7 +5993,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>699</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6001,7 +6001,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>699</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6024,7 +6024,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.060625" style="0" customWidth="1"/>
   </x:cols>
@@ -6065,7 +6065,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>812</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6073,7 +6073,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>812</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6096,7 +6096,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.540625" style="0" customWidth="1"/>
   </x:cols>
@@ -6137,7 +6137,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6145,7 +6145,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6168,7 +6168,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.430625" style="0" customWidth="1"/>
   </x:cols>
@@ -6209,7 +6209,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>676</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6217,7 +6217,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>676</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6240,7 +6240,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.570625" style="0" customWidth="1"/>
   </x:cols>
@@ -6281,7 +6281,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6289,7 +6289,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -6297,7 +6297,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6320,7 +6320,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.420625" style="0" customWidth="1"/>
   </x:cols>
@@ -6361,7 +6361,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1549</x:v>
+        <x:v>1724</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6369,7 +6369,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1549</x:v>
+        <x:v>1724</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6392,7 +6392,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.480625" style="0" customWidth="1"/>
   </x:cols>
@@ -6433,7 +6433,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6441,7 +6441,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6464,7 +6464,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.200625" style="0" customWidth="1"/>
   </x:cols>
@@ -6505,7 +6505,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2299</x:v>
+        <x:v>2584</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6513,7 +6513,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2299</x:v>
+        <x:v>2584</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6536,7 +6536,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.450625" style="0" customWidth="1"/>
   </x:cols>
@@ -6577,7 +6577,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1322</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6585,7 +6585,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1322</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6608,7 +6608,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.690625" style="0" customWidth="1"/>
   </x:cols>
@@ -6649,7 +6649,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>1056</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6657,7 +6657,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>1056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6680,7 +6680,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -6721,7 +6721,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6729,7 +6729,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6752,7 +6752,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -6793,7 +6793,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6801,7 +6801,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6824,7 +6824,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.890625" style="0" customWidth="1"/>
   </x:cols>
@@ -6865,7 +6865,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6873,7 +6873,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6896,7 +6896,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.320625" style="0" customWidth="1"/>
   </x:cols>
@@ -6937,7 +6937,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -6945,7 +6945,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6968,7 +6968,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.570625" style="0" customWidth="1"/>
   </x:cols>
@@ -7009,7 +7009,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7017,7 +7017,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7040,7 +7040,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.390625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.160625" style="0" customWidth="1"/>
@@ -7089,13 +7089,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1520</x:v>
+        <x:v>1545</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -7103,13 +7103,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1520</x:v>
+        <x:v>1545</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7132,7 +7132,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.290625" style="0" customWidth="1"/>
   </x:cols>
@@ -7173,7 +7173,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1243</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7181,7 +7181,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1243</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7204,7 +7204,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.040625" style="0" customWidth="1"/>
   </x:cols>
@@ -7245,7 +7245,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7253,7 +7253,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7276,7 +7276,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.670625" style="0" customWidth="1"/>
@@ -7321,10 +7321,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>494</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -7332,10 +7332,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>494</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7358,7 +7358,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.850625" style="0" customWidth="1"/>
@@ -7403,10 +7403,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>891</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -7414,10 +7414,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>891</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7440,7 +7440,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.480625" style="0" customWidth="1"/>
   </x:cols>
@@ -7481,7 +7481,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1073</x:v>
+        <x:v>1181</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7489,7 +7489,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1073</x:v>
+        <x:v>1181</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7512,7 +7512,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21.100625" style="0" customWidth="1"/>
   </x:cols>
@@ -7553,7 +7553,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>913</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7561,7 +7561,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>913</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7584,7 +7584,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.630625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.150625" style="0" customWidth="1"/>
@@ -7629,10 +7629,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>905</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>738</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -7640,10 +7640,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>905</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>738</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7666,7 +7666,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.760625" style="0" customWidth="1"/>
   </x:cols>
@@ -7707,7 +7707,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>966</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7715,7 +7715,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>966</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7738,7 +7738,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.460625" style="0" customWidth="1"/>
   </x:cols>
@@ -7779,7 +7779,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1588</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7787,7 +7787,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1588</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7810,7 +7810,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -7851,7 +7851,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7859,7 +7859,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7882,7 +7882,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.180625" style="0" customWidth="1"/>
   </x:cols>
@@ -7923,7 +7923,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1963</x:v>
+        <x:v>1990</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -7931,7 +7931,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1963</x:v>
+        <x:v>1990</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7954,7 +7954,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.860625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.660625" style="0" customWidth="1"/>
@@ -7999,10 +7999,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>832</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1483</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -8010,10 +8010,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>832</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1483</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8036,7 +8036,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="24.140625" style="0" customWidth="1"/>
   </x:cols>
@@ -8077,7 +8077,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8085,7 +8085,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8108,7 +8108,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -8149,7 +8149,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>844</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8157,7 +8157,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1788</x:v>
+        <x:v>1800</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -8165,7 +8165,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2614</x:v>
+        <x:v>2644</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8188,7 +8188,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.090625" style="0" customWidth="1"/>
   </x:cols>
@@ -8229,7 +8229,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2217</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8237,7 +8237,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2217</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8260,7 +8260,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.420625" style="0" customWidth="1"/>
   </x:cols>
@@ -8301,7 +8301,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8309,7 +8309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -8317,7 +8317,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>662</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8340,7 +8340,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="18.640625" style="0" customWidth="1"/>
@@ -8396,7 +8396,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>41</x:v>
@@ -8407,10 +8407,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>545</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -8418,10 +8418,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1902</x:v>
+        <x:v>1914</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>981</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8444,7 +8444,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.010625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.330625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.430625" style="0" customWidth="1"/>
@@ -8489,10 +8489,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -8500,10 +8500,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -8522,10 +8522,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8548,7 +8548,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.010625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="22.870625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="26.690625" style="0" customWidth="1"/>
@@ -8597,13 +8597,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -8611,10 +8611,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>38</x:v>
@@ -8625,10 +8625,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>12</x:v>
@@ -8639,13 +8639,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8668,7 +8668,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="22.020625" style="0" customWidth="1"/>
   </x:cols>
@@ -8709,7 +8709,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8717,7 +8717,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8740,7 +8740,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.160625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="18.900625" style="0" customWidth="1"/>
@@ -8785,10 +8785,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -8796,10 +8796,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>465</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -8818,10 +8818,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1600</x:v>
+        <x:v>1669</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8844,7 +8844,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.410625" style="0" customWidth="1"/>
   </x:cols>
@@ -8885,7 +8885,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8893,7 +8893,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -8909,7 +8909,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8932,7 +8932,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.010625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.360625" style="0" customWidth="1"/>
   </x:cols>
@@ -8973,7 +8973,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -8981,7 +8981,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -8989,7 +8989,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1035</x:v>
+        <x:v>1039</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -8997,7 +8997,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1734</x:v>
+        <x:v>1741</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9020,7 +9020,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.460625" style="0" customWidth="1"/>
   </x:cols>
@@ -9061,7 +9061,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>1842</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -9069,7 +9069,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>1842</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9092,7 +9092,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.440625" style="0" customWidth="1"/>
   </x:cols>
@@ -9164,7 +9164,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.200625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.230625" style="0" customWidth="1"/>
@@ -9209,10 +9209,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1331</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -9220,10 +9220,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1331</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9246,7 +9246,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.430625" style="0" customWidth="1"/>
   </x:cols>
@@ -9318,7 +9318,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.330625" style="0" customWidth="1"/>
   </x:cols>
@@ -9390,7 +9390,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.290625" style="0" customWidth="1"/>
   </x:cols>
@@ -9462,7 +9462,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.300625" style="0" customWidth="1"/>
   </x:cols>
@@ -9503,7 +9503,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1058</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -9511,7 +9511,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1058</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9534,7 +9534,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.670625" style="0" customWidth="1"/>
   </x:cols>
@@ -9575,7 +9575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -9583,7 +9583,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9606,7 +9606,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.660625" style="0" customWidth="1"/>
   </x:cols>
@@ -9678,7 +9678,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.370625" style="0" customWidth="1"/>
   </x:cols>
@@ -9719,7 +9719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>842</x:v>
+        <x:v>843</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -9727,7 +9727,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>842</x:v>
+        <x:v>843</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9750,7 +9750,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.280625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.350625" style="0" customWidth="1"/>
@@ -9832,7 +9832,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.670625" style="0" customWidth="1"/>
   </x:cols>
@@ -9873,7 +9873,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1004</x:v>
+        <x:v>1005</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -9881,7 +9881,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1004</x:v>
+        <x:v>1005</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9904,7 +9904,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.680625" style="0" customWidth="1"/>
   </x:cols>
@@ -9976,7 +9976,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.890625" style="0" customWidth="1"/>
   </x:cols>
@@ -10017,7 +10017,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -10025,7 +10025,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10048,7 +10048,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.370625" style="0" customWidth="1"/>
   </x:cols>
@@ -10089,7 +10089,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>994</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -10097,7 +10097,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>994</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10120,7 +10120,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.150625" style="0" customWidth="1"/>
   </x:cols>
@@ -10192,7 +10192,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21.720625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.940625" style="0" customWidth="1"/>
@@ -10237,7 +10237,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>314</x:v>
@@ -10248,7 +10248,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>314</x:v>
@@ -10274,7 +10274,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.220625" style="0" customWidth="1"/>
   </x:cols>
@@ -10315,7 +10315,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -10323,7 +10323,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10346,7 +10346,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.340625" style="0" customWidth="1"/>
   </x:cols>
@@ -10403,7 +10403,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -10419,7 +10419,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2239</x:v>
+        <x:v>2413</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10442,7 +10442,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -10514,7 +10514,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.120625" style="0" customWidth="1"/>
   </x:cols>
@@ -10586,7 +10586,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.800625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -10627,7 +10627,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1022</x:v>
+        <x:v>2099</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -10643,7 +10643,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1161</x:v>
+        <x:v>2238</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10666,7 +10666,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.610625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.800625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.670625" style="0" customWidth="1"/>
@@ -10711,10 +10711,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -10722,10 +10722,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -10777,10 +10777,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>1245</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1507</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10803,7 +10803,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.610625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.990625" style="0" customWidth="1"/>
   </x:cols>
@@ -10852,7 +10852,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -10876,7 +10876,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -10892,7 +10892,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10915,7 +10915,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.530625" style="0" customWidth="1"/>
   </x:cols>
@@ -10956,7 +10956,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2321</x:v>
+        <x:v>2350</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -10964,7 +10964,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2321</x:v>
+        <x:v>2350</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10987,7 +10987,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.310625" style="0" customWidth="1"/>
   </x:cols>
@@ -11067,7 +11067,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.350625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.190625" style="0" customWidth="1"/>
@@ -11160,7 +11160,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21.900625" style="0" customWidth="1"/>
   </x:cols>
@@ -11217,7 +11217,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -11233,7 +11233,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11256,7 +11256,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="22.190625" style="0" customWidth="1"/>
   </x:cols>
@@ -11305,7 +11305,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -11329,7 +11329,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>1731</x:v>
+        <x:v>1864</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11352,7 +11352,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.440625" style="0" customWidth="1"/>
   </x:cols>
@@ -11401,7 +11401,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -11425,7 +11425,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11448,7 +11448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.410625" style="0" customWidth="1"/>
   </x:cols>
@@ -11505,7 +11505,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>856</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -11521,7 +11521,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2074</x:v>
+        <x:v>2076</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11544,7 +11544,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.130625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.230625" style="0" customWidth="1"/>
   </x:cols>
@@ -11585,7 +11585,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1862</x:v>
+        <x:v>1877</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -11593,7 +11593,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1862</x:v>
+        <x:v>1877</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11616,7 +11616,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.840625" style="0" customWidth="1"/>
   </x:cols>
@@ -11657,7 +11657,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1713</x:v>
+        <x:v>1717</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -11673,7 +11673,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1920</x:v>
+        <x:v>1924</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11696,7 +11696,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.210625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.340625" style="0" customWidth="1"/>
   </x:cols>
@@ -11816,7 +11816,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.640625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.020625" style="0" customWidth="1"/>
@@ -11868,10 +11868,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -11882,10 +11882,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11908,7 +11908,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.070625" style="0" customWidth="1"/>
   </x:cols>
@@ -11949,7 +11949,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -11957,7 +11957,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11980,7 +11980,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.720625" style="0" customWidth="1"/>
   </x:cols>
@@ -12021,7 +12021,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -12029,7 +12029,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12052,7 +12052,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.600625" style="0" customWidth="1"/>
   </x:cols>
@@ -12093,7 +12093,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -12101,7 +12101,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1098</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -12117,7 +12117,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -12125,7 +12125,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2314</x:v>
+        <x:v>2348</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12148,7 +12148,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.820625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.720625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.030625" style="0" customWidth="1"/>
@@ -12218,16 +12218,16 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -12235,16 +12235,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1060</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>602</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12267,7 +12267,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.210625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.690625" style="0" customWidth="1"/>
   </x:cols>
@@ -12324,7 +12324,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -12332,7 +12332,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12355,7 +12355,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.210625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.390625" style="0" customWidth="1"/>
   </x:cols>
@@ -12412,7 +12412,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -12420,7 +12420,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12443,7 +12443,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.430625" style="0" customWidth="1"/>
   </x:cols>
@@ -12492,7 +12492,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -12500,7 +12500,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>678</x:v>
+        <x:v>689</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12523,7 +12523,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.380625" style="0" customWidth="1"/>
   </x:cols>
@@ -12572,7 +12572,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -12580,7 +12580,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12603,7 +12603,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21.340625" style="0" customWidth="1"/>
   </x:cols>
@@ -12644,7 +12644,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1573</x:v>
+        <x:v>1692</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -12652,7 +12652,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1573</x:v>
+        <x:v>1692</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12675,7 +12675,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.010625" style="0" customWidth="1"/>
   </x:cols>
@@ -12716,7 +12716,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1591</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -12724,7 +12724,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1591</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12747,7 +12747,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.280625" style="0" customWidth="1"/>
   </x:cols>
@@ -12788,7 +12788,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -12796,7 +12796,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12819,7 +12819,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.500625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
@@ -12864,10 +12864,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>791</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -12875,10 +12875,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>791</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12901,7 +12901,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -12942,7 +12942,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1939</x:v>
+        <x:v>2034</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -12950,7 +12950,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1939</x:v>
+        <x:v>2034</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12973,7 +12973,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.970625" style="0" customWidth="1"/>
   </x:cols>
@@ -13014,7 +13014,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2204</x:v>
+        <x:v>2282</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13022,7 +13022,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2204</x:v>
+        <x:v>2282</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13045,7 +13045,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.250625" style="0" customWidth="1"/>
   </x:cols>
@@ -13086,7 +13086,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>1031</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13094,7 +13094,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>1031</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13117,7 +13117,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.840625" style="0" customWidth="1"/>
   </x:cols>
@@ -13158,7 +13158,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13166,7 +13166,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13189,7 +13189,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -13230,7 +13230,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13238,7 +13238,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13261,7 +13261,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.540625" style="0" customWidth="1"/>
   </x:cols>
@@ -13302,7 +13302,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1201</x:v>
+        <x:v>1253</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13310,7 +13310,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1201</x:v>
+        <x:v>1253</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13333,7 +13333,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.070625" style="0" customWidth="1"/>
   </x:cols>
@@ -13374,7 +13374,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1091</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13382,7 +13382,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1091</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13405,7 +13405,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -13446,7 +13446,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13454,7 +13454,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13477,7 +13477,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="23.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -13518,7 +13518,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13526,7 +13526,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13549,7 +13549,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.070625" style="0" customWidth="1"/>
   </x:cols>
@@ -13590,7 +13590,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>976</x:v>
+        <x:v>1028</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13598,7 +13598,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>976</x:v>
+        <x:v>1028</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13621,7 +13621,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.500625" style="0" customWidth="1"/>
   </x:cols>
@@ -13662,7 +13662,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13670,7 +13670,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13693,7 +13693,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.770625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.020625" style="0" customWidth="1"/>
@@ -13738,10 +13738,10 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -13749,10 +13749,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13775,7 +13775,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.090625" style="0" customWidth="1"/>
   </x:cols>
@@ -13816,7 +13816,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1211</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13824,7 +13824,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1211</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13847,7 +13847,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -13888,7 +13888,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>821</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13896,7 +13896,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>821</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13919,7 +13919,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.210625" style="0" customWidth="1"/>
   </x:cols>
@@ -13960,7 +13960,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -13968,7 +13968,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13991,7 +13991,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -14032,7 +14032,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>678</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14040,7 +14040,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>678</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14063,7 +14063,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.740625" style="0" customWidth="1"/>
   </x:cols>
@@ -14104,7 +14104,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3297</x:v>
+        <x:v>3422</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14112,7 +14112,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3297</x:v>
+        <x:v>3422</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14135,7 +14135,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.380625" style="0" customWidth="1"/>
   </x:cols>
@@ -14176,7 +14176,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2189</x:v>
+        <x:v>2247</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14184,7 +14184,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2189</x:v>
+        <x:v>2247</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14207,7 +14207,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.150625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.550625" style="0" customWidth="1"/>
@@ -14252,10 +14252,10 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -14263,10 +14263,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14289,7 +14289,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.470625" style="0" customWidth="1"/>
   </x:cols>
@@ -14330,7 +14330,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1675</x:v>
+        <x:v>1776</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14338,7 +14338,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1675</x:v>
+        <x:v>1776</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14361,7 +14361,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.150625" style="0" customWidth="1"/>
   </x:cols>
@@ -14402,7 +14402,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1911</x:v>
+        <x:v>1912</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14418,7 +14418,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2052</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14441,7 +14441,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.510625" style="0" customWidth="1"/>
   </x:cols>
@@ -14482,7 +14482,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2375</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14490,7 +14490,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2375</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14513,7 +14513,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21.000625" style="0" customWidth="1"/>
   </x:cols>
@@ -14554,7 +14554,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14570,7 +14570,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14593,7 +14593,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
@@ -14634,7 +14634,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1833</x:v>
+        <x:v>1834</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14642,7 +14642,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1833</x:v>
+        <x:v>1834</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14665,7 +14665,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.380625" style="0" customWidth="1"/>
   </x:cols>
@@ -14737,7 +14737,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.140625" style="0" customWidth="1"/>
   </x:cols>
@@ -14778,7 +14778,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14786,7 +14786,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1209</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -14794,7 +14794,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -14802,7 +14802,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2265</x:v>
+        <x:v>2290</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14825,7 +14825,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.820625" style="0" customWidth="1"/>
   </x:cols>
@@ -14874,7 +14874,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>614</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -14882,7 +14882,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -14890,7 +14890,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>760</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14913,7 +14913,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.610625" style="0" customWidth="1"/>
   </x:cols>
@@ -14954,7 +14954,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1141</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -14962,7 +14962,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1141</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14985,7 +14985,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.840625" style="0" customWidth="1"/>
   </x:cols>
@@ -15026,7 +15026,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1255</x:v>
+        <x:v>1265</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -15034,7 +15034,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1255</x:v>
+        <x:v>1265</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15057,7 +15057,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.150625" style="0" customWidth="1"/>
   </x:cols>
@@ -15098,7 +15098,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1328</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -15106,7 +15106,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1328</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15129,7 +15129,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.780625" style="0" customWidth="1"/>
   </x:cols>
@@ -15170,7 +15170,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2112</x:v>
+        <x:v>2124</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -15178,7 +15178,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2112</x:v>
+        <x:v>2124</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15201,7 +15201,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.370625" style="0" customWidth="1"/>
   </x:cols>
@@ -15242,7 +15242,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -15250,7 +15250,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
